--- a/biology/Zoologie/Franklinothrips_megalops/Franklinothrips_megalops.xlsx
+++ b/biology/Zoologie/Franklinothrips_megalops/Franklinothrips_megalops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Franklinothrips megalops est une espèce d'insectes thysanoptères de la famille des Aeolothripidae, originaire d'Afrique.
-Ce thrips, long de 2 à 3 mm au stade adulte, mime les fourmis tant dans son comportement que dans sa morphologie. C'est un prédateur de thrips, tant au stade larvaire qu'au stade adulte[1].
-L'espèce est utilisée comme agent de lutte biologique. Elle est commercialisée à cet effet dans la région OEPP depuis 1992 pour lutter contre les thrips dans les cultures sous serre, notamment en Belgique, en France, en Espagne et aux Pays-Bas[2].
+Ce thrips, long de 2 à 3 mm au stade adulte, mime les fourmis tant dans son comportement que dans sa morphologie. C'est un prédateur de thrips, tant au stade larvaire qu'au stade adulte.
+L'espèce est utilisée comme agent de lutte biologique. Elle est commercialisée à cet effet dans la région OEPP depuis 1992 pour lutter contre les thrips dans les cultures sous serre, notamment en Belgique, en France, en Espagne et aux Pays-Bas.
 </t>
         </is>
       </c>
@@ -513,12 +525,14 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Mitothrips megalops Trybom, 1912.
 Franklinothrips myrmicaeformis Zanon, 1924.
 Spathiothrips bischoffi Richter, 1928.
-Franklinothrips aureus Moulton, 1936[3]</t>
+Franklinothrips aureus Moulton, 1936</t>
         </is>
       </c>
     </row>
